--- a/src/test/resources/unittesting/artifact/data/unitTest_base_macro3.data.xlsx
+++ b/src/test/resources/unittesting/artifact/data/unitTest_base_macro3.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0FFE61-2C3A-3249-9B52-11870AE12F51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA86304-6CE7-6A45-885F-89B4996396EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25940" yWindow="-20560" windowWidth="16800" windowHeight="10280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -56,36 +56,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>nexial.scope.fallbackToPrevious</t>
   </si>
   <si>
     <t>nexial.scope.iteration</t>
-  </si>
-  <si>
-    <t>nexial.pollWaitMs</t>
-  </si>
-  <si>
-    <t>nexial.failFast</t>
-  </si>
-  <si>
-    <t>nexial.textDelim</t>
-  </si>
-  <si>
-    <t>nexial.verbose</t>
   </si>
   <si>
     <t>nexial.openResult</t>
@@ -146,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +171,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,6 +209,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FFC9C9C9"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFC9C9C9"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFC9C9C9"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FFC9C9C9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -234,7 +234,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -258,6 +258,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -268,72 +272,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -818,10 +757,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA13"/>
+  <dimension ref="A1:AAA9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.1640625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="14" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="10" priority="10">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BB325-56F1-2540-917B-609A4846277E}">
+  <dimension ref="A1:AAA7"/>
+  <sheetViews>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.33203125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="HA2" s="4"/>
+      <c r="AAA2" s="5"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="9" priority="3" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="8" priority="4" stopIfTrue="1" operator="beginsWith" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="7" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="7">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936B26B-9C3E-0444-903D-9D76E8826F12}">
+  <dimension ref="A1:AAA9"/>
+  <sheetViews>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -838,401 +1006,74 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C1" s="7"/>
       <c r="HA1" s="6"/>
       <c r="AAA1" s="6"/>
     </row>
     <row r="2" spans="1:703">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="HA2" s="6"/>
       <c r="AAA2" s="6"/>
     </row>
     <row r="3" spans="1:703">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="HA3" s="4"/>
+      <c r="AAA3" s="5"/>
     </row>
     <row r="4" spans="1:703">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="HA4" s="4"/>
       <c r="AAA4" s="5"/>
     </row>
     <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="HA5" s="4"/>
       <c r="AAA5" s="5"/>
     </row>
     <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="HA6" s="4"/>
       <c r="AAA6" s="5"/>
     </row>
     <row r="7" spans="1:703">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="HA7" s="4"/>
       <c r="AAA7" s="5"/>
     </row>
     <row r="8" spans="1:703">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="HA8" s="4"/>
       <c r="AAA8" s="5"/>
     </row>
     <row r="9" spans="1:703">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="HA9" s="4"/>
       <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-    <row r="11" spans="1:703">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:703">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:703">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="19" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="3" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="10">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843BB325-56F1-2540-917B-609A4846277E}">
-  <dimension ref="A1:AAA10"/>
-  <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="27.83203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.33203125" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:703">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="HA1" s="6"/>
-      <c r="AAA1" s="6"/>
-    </row>
-    <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA2" s="6"/>
-      <c r="AAA2" s="6"/>
-    </row>
-    <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="HA4" s="4"/>
-      <c r="AAA4" s="5"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936B26B-9C3E-0444-903D-9D76E8826F12}">
-  <dimension ref="A1:AAA10"/>
-  <sheetViews>
-    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
-  <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:703">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="HA1" s="6"/>
-      <c r="AAA1" s="6"/>
-    </row>
-    <row r="2" spans="1:703">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="HA2" s="6"/>
-      <c r="AAA2" s="6"/>
-    </row>
-    <row r="3" spans="1:703">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="HA3" s="6"/>
-      <c r="AAA3" s="6"/>
-    </row>
-    <row r="4" spans="1:703">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="HA4" s="4"/>
-      <c r="AAA4" s="5"/>
-    </row>
-    <row r="5" spans="1:703">
-      <c r="HA5" s="4"/>
-      <c r="AAA5" s="5"/>
-    </row>
-    <row r="6" spans="1:703">
-      <c r="HA6" s="4"/>
-      <c r="AAA6" s="5"/>
-    </row>
-    <row r="7" spans="1:703">
-      <c r="HA7" s="4"/>
-      <c r="AAA7" s="5"/>
-    </row>
-    <row r="8" spans="1:703">
-      <c r="HA8" s="4"/>
-      <c r="AAA8" s="5"/>
-    </row>
-    <row r="9" spans="1:703">
-      <c r="HA9" s="4"/>
-      <c r="AAA9" s="5"/>
-    </row>
-    <row r="10" spans="1:703">
-      <c r="HA10" s="4"/>
-      <c r="AAA10" s="5"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <conditionalFormatting sqref="A4:A1048576">
-    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B1048576">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="5" priority="10">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A3">
-    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="10">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
